--- a/core/file/早签晨点晨跑模板.xlsx
+++ b/core/file/早签晨点晨跑模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17370" windowHeight="10215"/>
+    <workbookView windowWidth="15906" windowHeight="7606"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -27,16 +27,22 @@
   <si>
     <t>张三</t>
   </si>
+  <si>
+    <t>2012/12/1</t>
+  </si>
+  <si>
+    <t>2012/12/02</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,45 +53,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,24 +76,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,7 +120,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,13 +142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -167,17 +158,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,7 +191,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,181 +206,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,41 +400,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,8 +418,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,21 +448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -491,6 +458,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,150 +505,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -710,6 +719,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>144145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5593080" y="144145"/>
+          <a:ext cx="3272790" cy="3375025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -973,59 +1029,64 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="1" max="1" width="13.8761061946903" customWidth="1"/>
+    <col min="2" max="2" width="15.6283185840708" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>19510145</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>44531</v>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>19510146</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>44542</v>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2">
+        <v>19510146</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>